--- a/Literature_review.xlsx
+++ b/Literature_review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miro/Documents/GitHub/hynebot-control-center/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miro/Documents/Yliopisto/_CT10A6002 Master's Thesis /Lähteitä/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84BCA49-7776-B140-85C2-46F96894E1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BF94F6-99CB-7E47-967D-179E166D04A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="38980" windowHeight="41300" activeTab="1" xr2:uid="{022E54A9-BFAC-7B4D-A8EE-82610485EBB1}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="38980" windowHeight="41300" xr2:uid="{022E54A9-BFAC-7B4D-A8EE-82610485EBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature review part 1" sheetId="14" r:id="rId1"/>
@@ -10263,8 +10263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE8980-A99E-4E4B-9CC5-01456968C57C}">
   <dimension ref="A1:AB292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12852,7 +12852,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>351</v>
       </c>
       <c r="B40" t="s">
@@ -32212,7 +32212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF666629-22C1-8F4C-BAB4-2BA78F39AA1F}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Literature_review.xlsx
+++ b/Literature_review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miro/Documents/Yliopisto/_CT10A6002 Master's Thesis /Lähteitä/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miro/Documents/GitHub/hynebot-control-center/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BF94F6-99CB-7E47-967D-179E166D04A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0101AE9C-CECE-FF46-B6A0-1E6E4E9B0C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="38980" windowHeight="41300" xr2:uid="{022E54A9-BFAC-7B4D-A8EE-82610485EBB1}"/>
   </bookViews>
@@ -10263,8 +10263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE8980-A99E-4E4B-9CC5-01456968C57C}">
   <dimension ref="A1:AB292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18893,7 +18893,7 @@
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="4" t="s">
         <v>1095</v>
       </c>
       <c r="B119" t="s">
